--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:43:34+00:00</t>
+    <t>2022-11-17T10:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T10:59:49+00:00</t>
+    <t>2022-11-17T12:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T12:13:42+00:00</t>
+    <t>2022-11-24T13:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T13:50:37+00:00</t>
+    <t>2023-01-05T08:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -583,7 +586,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -593,39 +596,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.2734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -735,130 +738,136 @@
       <c r="AI1" t="s" s="1">
         <v>67</v>
       </c>
+      <c r="AJ1" t="s" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>70</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>68</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>76</v>
@@ -866,96 +875,99 @@
       <c r="L3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>68</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>70</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>82</v>
@@ -966,95 +978,98 @@
       <c r="M4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>68</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>89</v>
@@ -1062,68 +1077,71 @@
       <c r="L5" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>68</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T08:20:17+00:00</t>
+    <t>2023-01-24T07:53:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Primitive Type dateTime</t>
@@ -770,13 +774,13 @@
         <v>69</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -844,10 +848,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -858,7 +862,7 @@
         <v>70</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>69</v>
@@ -870,13 +874,13 @@
         <v>69</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -927,13 +931,13 @@
         <v>69</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>69</v>
@@ -944,14 +948,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -970,16 +974,16 @@
         <v>69</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1029,7 +1033,7 @@
         <v>69</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>70</v>
@@ -1041,15 +1045,15 @@
         <v>69</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1060,7 +1064,7 @@
         <v>70</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>69</v>
@@ -1072,13 +1076,13 @@
         <v>69</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1129,13 +1133,13 @@
         <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>69</v>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T07:53:27+00:00</t>
+    <t>2023-01-24T08:49:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T08:49:19+00:00</t>
+    <t>2023-02-02T07:53:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T07:53:11+00:00</t>
+    <t>2023-02-10T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:12:07+00:00</t>
+    <t>2023-02-10T09:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:22:00+00:00</t>
+    <t>2023-02-10T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:47:03+00:00</t>
+    <t>2023-02-21T10:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:27+00:00</t>
+    <t>2023-02-21T10:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:31+00:00</t>
+    <t>2023-02-21T11:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:28+00:00</t>
+    <t>2023-02-21T11:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:51+00:00</t>
+    <t>2023-02-22T15:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:06+00:00</t>
+    <t>2023-02-22T15:46:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:17+00:00</t>
+    <t>2023-03-10T07:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T07:39:36+00:00</t>
+    <t>2023-03-17T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:10:55+00:00</t>
+    <t>2023-03-17T13:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:11:04+00:00</t>
+    <t>2023-04-19T13:57:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:57:37+00:00</t>
+    <t>2023-04-19T13:59:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:59:03+00:00</t>
+    <t>2023-04-20T18:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:37:34+00:00</t>
+    <t>2023-04-20T18:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:38:40+00:00</t>
+    <t>2023-04-20T18:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:40:27+00:00</t>
+    <t>2023-04-20T19:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:18:44+00:00</t>
+    <t>2023-04-20T19:23:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:23:54+00:00</t>
+    <t>2023-04-20T19:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:43:11+00:00</t>
+    <t>2023-04-21T10:15:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T10:15:27+00:00</t>
+    <t>2023-04-21T14:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:28:50+00:00</t>
+    <t>2023-04-21T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:29:36+00:00</t>
+    <t>2023-04-21T14:42:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:15+00:00</t>
+    <t>2023-04-21T14:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:33+00:00</t>
+    <t>2023-04-21T14:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:55:14+00:00</t>
+    <t>2023-04-21T14:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:56:41+00:00</t>
+    <t>2023-04-25T13:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T13:57:38+00:00</t>
+    <t>2023-04-28T07:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T07:14:58+00:00</t>
+    <t>2023-04-28T10:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:20:31+00:00</t>
+    <t>2023-04-28T10:21:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:21:40+00:00</t>
+    <t>2023-05-15T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T08:38:34+00:00</t>
+    <t>2023-05-15T10:07:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:07:26+00:00</t>
+    <t>2023-05-15T10:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:09:56+00:00</t>
+    <t>2023-05-16T06:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-16T06:48:43+00:00</t>
+    <t>2023-06-06T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:33:19+00:00</t>
+    <t>2023-06-06T07:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:37:43+00:00</t>
+    <t>2023-06-06T07:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:38:08+00:00</t>
+    <t>2023-06-06T07:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:46+00:00</t>
+    <t>2023-06-06T07:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:53+00:00</t>
+    <t>2023-06-06T07:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:45:21+00:00</t>
+    <t>2023-06-08T08:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:30:17+00:00</t>
+    <t>2023-06-08T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:31:26+00:00</t>
+    <t>2023-06-14T06:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,114 +112,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
   </si>
   <si>
     <t/>
@@ -419,10 +311,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -590,7 +482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -601,551 +493,439 @@
   <cols>
     <col min="1" max="1" width="19.2734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>68</v>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:47:29+00:00</t>
+    <t>2023-08-28T15:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>A date, date-time or partial date (e.g. just year or year + month).  If hours and minutes are specified, a time zone SHALL be populated. The format is a union of the schema types gYear, gYearMonth, date and dateTime. Seconds must be provided due to schema type constraints but may be zero-filled and may be ignored.                 Dates SHALL be valid dates.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+be-inv-year-month-day:date SHALL be of format YYYY-MM-DD {empty() or toString().length()=10}</t>
   </si>
   <si>
     <t>dateTime.id</t>
@@ -623,15 +627,15 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -642,7 +646,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>33</v>
@@ -654,13 +658,13 @@
         <v>33</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -711,13 +715,13 @@
         <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>33</v>
@@ -728,14 +732,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -754,16 +758,16 @@
         <v>33</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -813,7 +817,7 @@
         <v>33</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>34</v>
@@ -825,15 +829,15 @@
         <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -844,7 +848,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>33</v>
@@ -856,13 +860,13 @@
         <v>33</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -913,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>33</v>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:26:36+00:00</t>
+    <t>2023-08-28T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:28:15+00:00</t>
+    <t>2023-09-01T06:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T06:47:50+00:00</t>
+    <t>2023-09-05T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:28:58+00:00</t>
+    <t>2023-09-29T14:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:06:01+00:00</t>
+    <t>2023-09-29T14:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:14:49+00:00</t>
+    <t>2023-09-29T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:15:09+00:00</t>
+    <t>2024-03-15T09:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +112,114 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
   </si>
   <si>
     <t/>
@@ -486,7 +594,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -497,439 +605,551 @@
   <cols>
     <col min="1" max="1" width="19.2734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.2734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>39</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>33</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:12:22+00:00</t>
+    <t>2024-09-24T14:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:40:03+00:00</t>
+    <t>2024-09-24T14:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-year-month-day.xlsx
+++ b/branches/StructureDefinition-be-year-month-day.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:41:18+00:00</t>
+    <t>2024-09-24T14:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
